--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1202263.296069243</v>
+        <v>1262003.540323507</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914465</v>
+        <v>426806.9758914466</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478704</v>
+        <v>12028112.67449083</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8690750.817630883</v>
+        <v>6998158.719190722</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>186.0850531309659</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>201.8362523107666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.17354161800005</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>11.92474456210268</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>166.9926657084724</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>175.0426595591498</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>41.14796601740649</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>54.30448777136515</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>326.2390623309846</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>43.76331341951682</v>
+        <v>17.79417311172712</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405353</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.9561866171907</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.340713598978359</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>156.9408434312882</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>144.5058031064382</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>122.9808755242959</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3677099213027</v>
+        <v>56.02127570389438</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>13.08993799274036</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>273.9885489359246</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>14.33833450985499</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,10 +1934,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>109.2563341216247</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035708</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>141.605924235581</v>
       </c>
       <c r="H19" t="n">
-        <v>77.06414976739539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>237.1988660347552</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>74.67391679290778</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>43.76331341951682</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405353</v>
+        <v>57.07339698405352</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>141.6059242355811</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>153.1789736827622</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>58.7043164203232</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>175.6918285648365</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>68.39969274597628</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S24" t="n">
-        <v>122.9808755242959</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>13.08993799274044</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.2238804167313</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>68.39969274597628</v>
       </c>
       <c r="S26" t="n">
-        <v>24.2558162445035</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2645,10 +2645,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>52.18293713757112</v>
       </c>
       <c r="G27" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>13.08993799274037</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>110.6440585833979</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>189.4956606329403</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.098631347230334</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>13.08993799274037</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>126.9709714041142</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>46.00240107475424</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H33" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>76.97279983537923</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>132.1304135414941</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>26.73110927253622</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>47.22124123359229</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>47.47529300550336</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>92.38746904957867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>47.6720309098988</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.005789270132</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>167.5872248501033</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>53.27515195945767</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.84375218798685</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>123.6039762133036</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>209.0555160862694</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>117.3863177115045</v>
+        <v>131.2019459422929</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>140.3723668513055</v>
       </c>
       <c r="G42" t="n">
-        <v>43.76331341951727</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3957,13 +3957,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>13.0899379927405</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>47.47529300550336</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>47.22124123359229</v>
       </c>
       <c r="V44" t="n">
-        <v>242.9432878235683</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>74.86757009578112</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>52.18293713757113</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405352</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>119.5452544581847</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>55.99754945716018</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C2" t="n">
-        <v>540.6514970160482</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D2" t="n">
-        <v>297.2027203719481</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E2" t="n">
-        <v>297.2027203719481</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F2" t="n">
-        <v>290.2572196227447</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4360,22 +4360,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>728.6161971483371</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,10 +4418,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4439,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>660.701031422288</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>456.8260290881803</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>456.8260290881803</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4555,13 +4555,13 @@
         <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4600,19 +4600,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="V5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="W5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="X5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="Y5" t="n">
         <v>559.1338160830064</v>
-      </c>
-      <c r="V5" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="W5" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="X5" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256.869462878957</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C6" t="n">
-        <v>256.869462878957</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>256.869462878957</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>256.869462878957</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>952.0119589832598</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>778.5946144339287</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>576.4080197926946</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>576.4080197926946</v>
       </c>
       <c r="V6" t="n">
-        <v>425.5489231905453</v>
+        <v>341.255911560952</v>
       </c>
       <c r="W6" t="n">
-        <v>256.869462878957</v>
+        <v>341.255911560952</v>
       </c>
       <c r="X6" t="n">
-        <v>256.869462878957</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y6" t="n">
-        <v>256.869462878957</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777.1547729109448</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>533.7059962668447</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>290.2572196227447</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>290.2572196227447</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4837,19 +4837,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>777.1547729109448</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>777.1547729109448</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>777.1547729109448</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>777.1547729109448</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>613.4725238202047</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>613.4725238202047</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>821.3240240257376</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>613.4725238202047</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>613.4725238202047</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1202.411677820835</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C11" t="n">
-        <v>1147.558659869961</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D11" t="n">
-        <v>789.2929612632108</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E11" t="n">
-        <v>789.2929612632108</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F11" t="n">
-        <v>378.3070564736033</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5041,19 +5041,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5068,25 +5068,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U11" t="n">
-        <v>2259.7089786956</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V11" t="n">
-        <v>1928.646091352029</v>
+        <v>1638.058921576799</v>
       </c>
       <c r="W11" t="n">
-        <v>1575.877436081915</v>
+        <v>1638.058921576799</v>
       </c>
       <c r="X11" t="n">
-        <v>1202.411677820835</v>
+        <v>1264.593163315719</v>
       </c>
       <c r="Y11" t="n">
-        <v>1202.411677820835</v>
+        <v>1264.593163315719</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>93.02511962298431</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G12" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K12" t="n">
-        <v>161.1406371339188</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L12" t="n">
-        <v>540.2677802593121</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M12" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973757</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5181,19 +5181,19 @@
         <v>351.2209996437976</v>
       </c>
       <c r="D13" t="n">
-        <v>351.2209996437976</v>
+        <v>201.1043602314619</v>
       </c>
       <c r="E13" t="n">
-        <v>351.2209996437976</v>
+        <v>201.1043602314619</v>
       </c>
       <c r="F13" t="n">
-        <v>204.3310521458872</v>
+        <v>54.21441273355151</v>
       </c>
       <c r="G13" t="n">
-        <v>204.3310521458872</v>
+        <v>54.21441273355151</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256327</v>
+        <v>54.21441273355151</v>
       </c>
       <c r="I13" t="n">
         <v>48.81975253256327</v>
@@ -5202,7 +5202,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371203</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1300.725878693051</v>
+        <v>1584.403935229855</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.725878693051</v>
+        <v>1584.403935229855</v>
       </c>
       <c r="D14" t="n">
-        <v>942.4601800863004</v>
+        <v>1425.877830753806</v>
       </c>
       <c r="E14" t="n">
-        <v>942.4601800863004</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F14" t="n">
-        <v>942.4601800863004</v>
+        <v>629.1036733659546</v>
       </c>
       <c r="G14" t="n">
-        <v>524.2725141568742</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
-        <v>194.7852102158342</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
         <v>795.0052981540048</v>
@@ -5296,34 +5296,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P14" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q14" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.094374027287</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.094374027287</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V14" t="n">
-        <v>2040.094374027287</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W14" t="n">
-        <v>1687.325718757173</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X14" t="n">
-        <v>1687.325718757173</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="Y14" t="n">
-        <v>1687.325718757173</v>
+        <v>1971.003775293977</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>816.0090920043505</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C15" t="n">
-        <v>641.5560627232235</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D15" t="n">
-        <v>492.6216530619722</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E15" t="n">
-        <v>333.3841980565167</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F15" t="n">
-        <v>186.8496400834017</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G15" t="n">
-        <v>48.81975253256328</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>81.9375139983886</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>318.2287647883257</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>697.355907913719</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.758623309282</v>
+        <v>1222.807150561438</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827628</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346857</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5384,25 +5384,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2316.764520037966</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2117.403196885135</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U15" t="n">
-        <v>1889.225692954849</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V15" t="n">
-        <v>1654.073584723107</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W15" t="n">
-        <v>1399.836227994905</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X15" t="n">
-        <v>1191.984727789372</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y15" t="n">
-        <v>984.2244290244184</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
         <v>93.68771932371203</v>
@@ -5472,16 +5472,16 @@
         <v>351.4590821581505</v>
       </c>
       <c r="V16" t="n">
-        <v>351.4590821581505</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W16" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X16" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1800.479047986479</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="C17" t="n">
-        <v>1431.516531046067</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D17" t="n">
-        <v>1073.250832439317</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E17" t="n">
-        <v>1073.250832439317</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F17" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G17" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256328</v>
@@ -5515,10 +5515,10 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L17" t="n">
         <v>795.0052981540048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.618379962291</v>
+        <v>2426.504460456593</v>
       </c>
       <c r="T17" t="n">
-        <v>2190.618379962291</v>
+        <v>2206.88985578828</v>
       </c>
       <c r="U17" t="n">
-        <v>2190.618379962291</v>
+        <v>1953.110161800163</v>
       </c>
       <c r="V17" t="n">
-        <v>2190.618379962291</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="W17" t="n">
-        <v>2190.618379962291</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="X17" t="n">
-        <v>2190.618379962291</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="Y17" t="n">
-        <v>1800.479047986479</v>
+        <v>1622.047274456592</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>297.2095735395882</v>
       </c>
       <c r="F18" t="n">
-        <v>186.8496400834017</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="G18" t="n">
         <v>48.81975253256328</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.9009368039367</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="C19" t="n">
-        <v>412.9009368039367</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="D19" t="n">
-        <v>412.9009368039367</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="E19" t="n">
-        <v>412.9009368039367</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="F19" t="n">
-        <v>266.0109893060263</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="G19" t="n">
-        <v>266.0109893060263</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256328</v>
@@ -5703,22 +5703,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V19" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X19" t="n">
-        <v>412.9009368039367</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="Y19" t="n">
-        <v>412.9009368039367</v>
+        <v>191.8560396392108</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1297.18638678136</v>
+        <v>1503.376390026362</v>
       </c>
       <c r="C20" t="n">
-        <v>928.2238698409487</v>
+        <v>1503.376390026362</v>
       </c>
       <c r="D20" t="n">
-        <v>928.2238698409487</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E20" t="n">
-        <v>542.4356172427044</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F20" t="n">
         <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540049</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P20" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q20" t="n">
         <v>2440.987626628164</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2040.094374027286</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U20" t="n">
-        <v>2040.094374027286</v>
+        <v>2187.207932640047</v>
       </c>
       <c r="V20" t="n">
-        <v>2040.094374027286</v>
+        <v>1856.145045296476</v>
       </c>
       <c r="W20" t="n">
-        <v>1687.325718757172</v>
+        <v>1503.376390026362</v>
       </c>
       <c r="X20" t="n">
-        <v>1687.325718757172</v>
+        <v>1503.376390026362</v>
       </c>
       <c r="Y20" t="n">
-        <v>1297.18638678136</v>
+        <v>1503.376390026362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,55 +5807,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628061</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7971326015548</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E21" t="n">
-        <v>239.5596775960993</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F21" t="n">
-        <v>93.02511962298431</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>112.9860412505445</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>349.2772920404816</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658749</v>
       </c>
       <c r="M21" t="n">
         <v>1222.807150561438</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973757</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S21" t="n">
         <v>2222.939999577549</v>
@@ -5864,10 +5864,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W21" t="n">
         <v>1306.011707534488</v>
@@ -5876,7 +5876,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C22" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D22" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K22" t="n">
-        <v>93.68771932371203</v>
+        <v>93.68771932371205</v>
       </c>
       <c r="L22" t="n">
-        <v>206.6297039190408</v>
+        <v>206.6297039190409</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345759</v>
+        <v>336.100314134576</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420814</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801512</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581505</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="V22" t="n">
-        <v>196.7328461149564</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="W22" t="n">
-        <v>196.7328461149564</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="X22" t="n">
-        <v>196.7328461149564</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y22" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>862.867811384677</v>
+        <v>1799.513767956427</v>
       </c>
       <c r="C23" t="n">
-        <v>493.9052944442653</v>
+        <v>1799.513767956427</v>
       </c>
       <c r="D23" t="n">
-        <v>434.6080051308075</v>
+        <v>1441.248069349676</v>
       </c>
       <c r="E23" t="n">
-        <v>48.81975253256328</v>
+        <v>1055.459816751432</v>
       </c>
       <c r="F23" t="n">
-        <v>48.81975253256328</v>
+        <v>644.4739119618243</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256328</v>
+        <v>226.2862460323981</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6007,34 +6007,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.618379962291</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>2190.618379962291</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U23" t="n">
-        <v>1936.838685974173</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V23" t="n">
-        <v>1605.775798630603</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="W23" t="n">
-        <v>1253.007143360489</v>
+        <v>1799.513767956427</v>
       </c>
       <c r="X23" t="n">
-        <v>1253.007143360489</v>
+        <v>1799.513767956427</v>
       </c>
       <c r="Y23" t="n">
-        <v>862.867811384677</v>
+        <v>1799.513767956427</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
         <v>285.1110033225004</v>
@@ -6092,28 +6092,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T24" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
         <v>93.68771932371203</v>
@@ -6177,22 +6177,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>627.4160100921315</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>338.2369225695239</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V25" t="n">
         <v>338.2369225695239</v>
       </c>
       <c r="W25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>803.5705220712192</v>
+        <v>451.0660963878474</v>
       </c>
       <c r="C26" t="n">
-        <v>434.6080051308075</v>
+        <v>451.0660963878474</v>
       </c>
       <c r="D26" t="n">
-        <v>434.6080051308075</v>
+        <v>451.0660963878474</v>
       </c>
       <c r="E26" t="n">
-        <v>48.81975253256327</v>
+        <v>451.0660963878474</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>451.0660963878474</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
         <v>795.0052981540048</v>
@@ -6238,40 +6238,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N26" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O26" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S26" t="n">
-        <v>2347.396203405457</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T26" t="n">
-        <v>2127.781598737143</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U26" t="n">
-        <v>1874.001904749026</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="V26" t="n">
-        <v>1542.939017405455</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W26" t="n">
-        <v>1190.170362135341</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="X26" t="n">
-        <v>1190.170362135341</v>
+        <v>841.2054283636592</v>
       </c>
       <c r="Y26" t="n">
-        <v>1190.170362135341</v>
+        <v>451.0660963878474</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J27" t="n">
         <v>112.9860412505444</v>
@@ -6323,13 +6323,13 @@
         <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973757</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S27" t="n">
         <v>2222.939999577549</v>
@@ -6338,10 +6338,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W27" t="n">
         <v>1306.011707534488</v>
@@ -6350,7 +6350,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K28" t="n">
         <v>93.68771932371203</v>
@@ -6417,19 +6417,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>351.4590821581505</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V28" t="n">
-        <v>351.4590821581505</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1263.781575849841</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.781575849841</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.781575849841</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2260.135352558088</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2040.520747889775</v>
+        <v>2249.577868413072</v>
       </c>
       <c r="U29" t="n">
-        <v>2040.520747889775</v>
+        <v>2249.577868413072</v>
       </c>
       <c r="V29" t="n">
-        <v>2040.520747889775</v>
+        <v>1918.514981069502</v>
       </c>
       <c r="W29" t="n">
-        <v>2040.520747889775</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="X29" t="n">
-        <v>2040.520747889775</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="Y29" t="n">
-        <v>1650.381415913963</v>
+        <v>1565.746325799387</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>773.6742338033508</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>599.2212045222238</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H30" t="n">
         <v>48.81975253256327</v>
@@ -6542,52 +6542,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561438</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2434.827392944092</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2274.429661836966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2075.068338684135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1846.89083475385</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V30" t="n">
-        <v>1611.738726522107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
-        <v>1357.501369793905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1149.649869588373</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>941.8895708234188</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
         <v>48.81975253256327</v>
@@ -6657,16 +6657,16 @@
         <v>351.4590821581505</v>
       </c>
       <c r="V31" t="n">
-        <v>351.4590821581505</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W31" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X31" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>924.4603950442781</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="C32" t="n">
-        <v>924.4603950442781</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D32" t="n">
-        <v>924.4603950442781</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E32" t="n">
         <v>877.9933232515971</v>
@@ -6703,49 +6703,49 @@
         <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O32" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S32" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T32" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U32" t="n">
-        <v>2371.897027894855</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V32" t="n">
-        <v>2040.834140551284</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="W32" t="n">
-        <v>1688.06548528117</v>
+        <v>1765.348678636623</v>
       </c>
       <c r="X32" t="n">
-        <v>1314.59972702009</v>
+        <v>1765.348678636623</v>
       </c>
       <c r="Y32" t="n">
-        <v>924.4603950442781</v>
+        <v>1375.209346660811</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G33" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6779,7 +6779,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
         <v>318.2287647883252</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>351.2209996437976</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="C34" t="n">
-        <v>182.2848167158907</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="D34" t="n">
-        <v>182.2848167158907</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E34" t="n">
-        <v>182.2848167158907</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
-        <v>182.2848167158907</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
         <v>48.81975253256327</v>
@@ -6885,25 +6885,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W34" t="n">
-        <v>351.2209996437976</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X34" t="n">
-        <v>351.2209996437976</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="Y34" t="n">
-        <v>351.2209996437976</v>
+        <v>424.5997883913116</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1263.781575849841</v>
+        <v>1290.782696327151</v>
       </c>
       <c r="C35" t="n">
         <v>1263.781575849841</v>
@@ -6937,13 +6937,13 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2393.289403159889</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2393.289403159889</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2393.289403159889</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>2393.289403159889</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>2393.289403159889</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W35" t="n">
-        <v>2040.520747889775</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X35" t="n">
-        <v>2040.520747889775</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y35" t="n">
-        <v>1650.381415913963</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>48.81975253256328</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>365.6690290428633</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C37" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D37" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E37" t="n">
         <v>48.81975253256328</v>
@@ -7128,19 +7128,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V37" t="n">
-        <v>640.6381696807582</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W37" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X37" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y37" t="n">
-        <v>547.317493873103</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1242.389200584807</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="C38" t="n">
-        <v>873.4266836443953</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="D38" t="n">
-        <v>515.1609850376449</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="E38" t="n">
-        <v>467.0074184619895</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619895</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256328</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K38" t="n">
         <v>412.3079679977591</v>
@@ -7213,13 +7213,13 @@
         <v>2371.897027894855</v>
       </c>
       <c r="W38" t="n">
-        <v>2019.12837262474</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="X38" t="n">
-        <v>2019.12837262474</v>
+        <v>2202.61700279374</v>
       </c>
       <c r="Y38" t="n">
-        <v>1628.989040648929</v>
+        <v>1812.477670817928</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.7751048338188</v>
+        <v>976.4219282721351</v>
       </c>
       <c r="C39" t="n">
-        <v>814.3220755526918</v>
+        <v>801.9688989910081</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>653.0344893297569</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>493.7970343243014</v>
       </c>
       <c r="F39" t="n">
-        <v>359.6156529128699</v>
+        <v>347.2624763511864</v>
       </c>
       <c r="G39" t="n">
-        <v>221.5857653620315</v>
+        <v>209.232588800348</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>102.6330373400963</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256328</v>
@@ -7277,28 +7277,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2395.690907246359</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S39" t="n">
-        <v>2235.293176139233</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2035.931852986402</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1807.754349056116</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V39" t="n">
-        <v>1572.602240824373</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.602240824373</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.750740618841</v>
+        <v>1352.397564057157</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.990441853887</v>
+        <v>1144.637265292203</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C40" t="n">
-        <v>471.7019867528513</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D40" t="n">
-        <v>321.5853473405156</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E40" t="n">
-        <v>173.6722537581225</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F40" t="n">
-        <v>173.6722537581225</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G40" t="n">
         <v>48.81975253256328</v>
@@ -7356,28 +7356,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="X40" t="n">
-        <v>640.6381696807582</v>
+        <v>259.986940498492</v>
       </c>
       <c r="Y40" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1203.859608527166</v>
+        <v>1158.255478203622</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.859608527166</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="D41" t="n">
-        <v>845.5939099204151</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="E41" t="n">
-        <v>459.8056573221708</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F41" t="n">
-        <v>48.81975253256328</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256328</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256328</v>
@@ -7411,13 +7411,13 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J41" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540049</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2040.094374027287</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>1921.522335934858</v>
+        <v>2308.460408504636</v>
       </c>
       <c r="V41" t="n">
-        <v>1590.459448591287</v>
+        <v>2308.460408504636</v>
       </c>
       <c r="W41" t="n">
-        <v>1590.459448591287</v>
+        <v>2308.460408504636</v>
       </c>
       <c r="X41" t="n">
-        <v>1590.459448591287</v>
+        <v>1934.994650243556</v>
       </c>
       <c r="Y41" t="n">
-        <v>1590.459448591287</v>
+        <v>1544.855318267744</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439335</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628066</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015553</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960998</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F42" t="n">
-        <v>93.02511962298476</v>
+        <v>155.419303992815</v>
       </c>
       <c r="G42" t="n">
-        <v>48.81975253256328</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H42" t="n">
         <v>48.81975253256328</v>
@@ -7490,52 +7490,52 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505445</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404816</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658749</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
         <v>1222.807150561438</v>
       </c>
       <c r="N42" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494433</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.24906426269</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640016</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="43">
@@ -7572,43 +7572,43 @@
         <v>48.81975253256328</v>
       </c>
       <c r="K43" t="n">
-        <v>93.68771932371205</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L43" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>351.4590821581506</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V43" t="n">
-        <v>338.2369225695239</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W43" t="n">
-        <v>48.81975253256328</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X43" t="n">
         <v>48.81975253256328</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>958.5909773069948</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C44" t="n">
-        <v>958.5909773069948</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D44" t="n">
-        <v>958.5909773069948</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E44" t="n">
-        <v>958.5909773069948</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F44" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256328</v>
@@ -7654,7 +7654,7 @@
         <v>412.3079679977592</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540049</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7678,22 +7678,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2221.373021959851</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>1967.593327971733</v>
+        <v>2393.289403159889</v>
       </c>
       <c r="V44" t="n">
-        <v>1722.196067543886</v>
+        <v>2393.289403159889</v>
       </c>
       <c r="W44" t="n">
-        <v>1722.196067543886</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="X44" t="n">
-        <v>1348.730309282807</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y44" t="n">
-        <v>958.5909773069948</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>779.834467487422</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C45" t="n">
-        <v>605.381438206295</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D45" t="n">
-        <v>456.4470285450437</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E45" t="n">
-        <v>297.2095735395882</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F45" t="n">
-        <v>221.5857653620315</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>101.5297900452614</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256328</v>
@@ -7751,28 +7751,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S45" t="n">
-        <v>2280.589895521038</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2081.228572368207</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V45" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W45" t="n">
-        <v>1363.661603477977</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1155.810103272444</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>948.0498045074901</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256328</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256328</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256328</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256328</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256328</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256328</v>
@@ -7833,25 +7833,25 @@
         <v>640.6381696807583</v>
       </c>
       <c r="S46" t="n">
-        <v>519.8853873997637</v>
+        <v>424.5997883913117</v>
       </c>
       <c r="T46" t="n">
-        <v>519.8853873997637</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="U46" t="n">
-        <v>519.8853873997637</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="V46" t="n">
-        <v>519.8853873997637</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="W46" t="n">
-        <v>230.468217362803</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="X46" t="n">
-        <v>230.468217362803</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="Y46" t="n">
-        <v>230.468217362803</v>
+        <v>368.0366071214529</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194301</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K12" t="n">
-        <v>139.2426449029002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>94.72888660085746</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>289.305349185409</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725693</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>289.305349185409</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817928</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617151</v>
+        <v>84.85469562617104</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.305349185409</v>
+        <v>289.3053491854096</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194301</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003851</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617104</v>
+        <v>51.40241131725693</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>94.72888660085701</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730267</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10667,7 +10667,7 @@
         <v>61.27660229194301</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.85469562617151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854096</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>287.1006199003851</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.40241131725692</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,10 +22676,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>88.23308959054046</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>310.9684039996424</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597628</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.513196139150295</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>92.88627525581317</v>
+        <v>118.8554155636029</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,13 +23433,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>3.098554305433595</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>132.6144610393546</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>197.7421981893948</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>15.96948924848729</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>65.50479675552441</v>
@@ -23624,10 +23624,10 @@
         <v>57.07339698405353</v>
       </c>
       <c r="S15" t="n">
-        <v>35.8128782717589</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>141.3464342174083</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>132.3311100301909</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>132.8874968057868</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>165.1275269433831</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,10 +23822,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>35.8128782717592</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>35.81287827175917</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>25.80328878920733</v>
       </c>
       <c r="H19" t="n">
-        <v>79.9905911552289</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617342</v>
@@ -23943,7 +23943,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
         <v>286.2872966473816</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>117.4841755859277</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.2021289488036</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597628</v>
+        <v>68.39969274597627</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.88627525581317</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617341</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407323</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24180,22 +24180,22 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>83.85393631247217</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>98.9586696410658</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>295.9787252003597</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>150.5006023367931</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>35.8128782717589</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>212.3699225553129</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>15.78190885340064</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>155.2100452087346</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24533,10 +24533,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>92.88627525581276</v>
       </c>
       <c r="G27" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
@@ -24618,7 +24618,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>143.9648029298839</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24657,10 +24657,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S29" t="n">
-        <v>68.82180286984017</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>27.92279798869021</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.97476563682319</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>154.319275032048</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>255.7628702593664</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>335.9279689975075</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H33" t="n">
-        <v>61.77024252613235</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>90.2740212632486</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>35.27879948329422</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
@@ -25125,7 +25125,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.4598605480533</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>338.5417824984713</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>21.17845151238399</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25368,19 +25368,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.1971843025161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>334.258339162363</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>202.1438758283657</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>12.22964479606674</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>12.22964479606668</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>43.80523681148476</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25596,7 +25596,7 @@
         <v>37.44704598407324</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>213.8779974765521</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>9.529137265825369</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.39969274597627</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>133.8555793367318</v>
+        <v>120.0399511059433</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4.696845542078364</v>
       </c>
       <c r="G42" t="n">
-        <v>92.88627525581273</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>239.0477053310875</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>178.2343623835338</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0206558146439</v>
       </c>
       <c r="V44" t="n">
-        <v>84.80897064656665</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>70.20164229760276</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>53.35061880807804</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26073,10 +26073,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>94.33274301836742</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>169.4623110908931</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1001985.280980417</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1001985.280980417</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1001985.280980417</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668307.8888138685</v>
+        <v>668307.8888138686</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>668307.8888138687</v>
+        <v>668307.8888138689</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>668307.8888138685</v>
+        <v>668307.8888138687</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>668307.8888138687</v>
+        <v>668307.8888138685</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>668307.8888138686</v>
+        <v>668307.8888138685</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>668307.8888138686</v>
+        <v>668307.8888138689</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="E2" t="n">
-        <v>298256.6328032463</v>
+        <v>298256.6328032462</v>
       </c>
       <c r="F2" t="n">
         <v>298256.6328032463</v>
       </c>
       <c r="G2" t="n">
-        <v>298256.6328032462</v>
+        <v>298256.6328032465</v>
       </c>
       <c r="H2" t="n">
+        <v>298256.6328032464</v>
+      </c>
+      <c r="I2" t="n">
         <v>298256.6328032463</v>
       </c>
-      <c r="I2" t="n">
-        <v>298256.6328032464</v>
-      </c>
       <c r="J2" t="n">
-        <v>298256.6328032464</v>
+        <v>298256.6328032463</v>
       </c>
       <c r="K2" t="n">
         <v>298256.6328032464</v>
@@ -26346,13 +26346,13 @@
         <v>298256.6328032463</v>
       </c>
       <c r="M2" t="n">
-        <v>298256.6328032464</v>
+        <v>298256.6328032463</v>
       </c>
       <c r="N2" t="n">
-        <v>298256.6328032464</v>
+        <v>298256.6328032463</v>
       </c>
       <c r="O2" t="n">
-        <v>298256.6328032464</v>
+        <v>298256.6328032462</v>
       </c>
       <c r="P2" t="n">
         <v>298256.6328032463</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.2452810931</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295860.2172754403</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>295860.2172754402</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754402</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
         <v>18029.85379262113</v>
@@ -26438,19 +26438,19 @@
         <v>18029.85379262113</v>
       </c>
       <c r="I4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
       <c r="J4" t="n">
         <v>18029.85379262113</v>
       </c>
       <c r="K4" t="n">
-        <v>18029.85379262112</v>
+        <v>18029.85379262113</v>
       </c>
       <c r="L4" t="n">
         <v>18029.85379262113</v>
       </c>
       <c r="M4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
       <c r="N4" t="n">
         <v>18029.85379262113</v>
@@ -26481,19 +26481,19 @@
         <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
         <v>44136.03802033843</v>
       </c>
       <c r="H5" t="n">
+        <v>44136.03802033843</v>
+      </c>
+      <c r="I5" t="n">
         <v>44136.03802033842</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>44136.03802033843</v>
-      </c>
-      <c r="J5" t="n">
-        <v>44136.03802033842</v>
       </c>
       <c r="K5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26662.05585460616</v>
+        <v>35589.54878617133</v>
       </c>
       <c r="C6" t="n">
-        <v>107431.487386154</v>
+        <v>116358.9803177191</v>
       </c>
       <c r="D6" t="n">
-        <v>107431.487386154</v>
+        <v>116358.9803177191</v>
       </c>
       <c r="E6" t="n">
-        <v>-140313.4827162256</v>
+        <v>-134041.4505998667</v>
       </c>
       <c r="F6" t="n">
-        <v>229121.8164165545</v>
+        <v>235393.8485329135</v>
       </c>
       <c r="G6" t="n">
-        <v>229121.8164165545</v>
+        <v>235393.8485329137</v>
       </c>
       <c r="H6" t="n">
-        <v>229121.8164165545</v>
+        <v>235393.8485329136</v>
       </c>
       <c r="I6" t="n">
-        <v>229121.8164165546</v>
+        <v>235393.8485329135</v>
       </c>
       <c r="J6" t="n">
-        <v>166061.8738174484</v>
+        <v>172333.9059338072</v>
       </c>
       <c r="K6" t="n">
-        <v>229121.8164165546</v>
+        <v>235393.8485329136</v>
       </c>
       <c r="L6" t="n">
-        <v>229121.8164165545</v>
+        <v>235393.8485329135</v>
       </c>
       <c r="M6" t="n">
-        <v>137107.5711354615</v>
+        <v>143379.6032518205</v>
       </c>
       <c r="N6" t="n">
-        <v>229121.8164165546</v>
+        <v>235393.8485329135</v>
       </c>
       <c r="O6" t="n">
-        <v>229121.8164165546</v>
+        <v>235393.8485329134</v>
       </c>
       <c r="P6" t="n">
-        <v>229121.8164165545</v>
+        <v>235393.8485329135</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>322.6158759445109</v>
@@ -26801,19 +26801,19 @@
         <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="G4" t="n">
         <v>610.246906657041</v>
       </c>
       <c r="H4" t="n">
+        <v>610.246906657041</v>
+      </c>
+      <c r="I4" t="n">
         <v>610.2469066570409</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>610.246906657041</v>
-      </c>
-      <c r="J4" t="n">
-        <v>610.2469066570409</v>
       </c>
       <c r="K4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>179.1878386400416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>49.85873085015305</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>38.23792762219048</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>381.7025041237114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>84.7023174524472</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>140.1931807347553</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>152.7095989109851</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>210.5470171435131</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,34 +28010,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.98494807699674</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31758,7 +31758,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
@@ -31770,7 +31770,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
         <v>231.4177177265083</v>
@@ -31782,16 +31782,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300721</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500889</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472369</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
@@ -31855,22 +31855,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876458</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518919</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
         <v>0.04565318999214778</v>
@@ -31910,34 +31910,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280078</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223823</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
         <v>48.71499726762114</v>
@@ -31946,13 +31946,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32469,25 +32469,25 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548045</v>
       </c>
       <c r="J20" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K20" t="n">
-        <v>164.9766803203078</v>
+        <v>164.9766803203079</v>
       </c>
       <c r="L20" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733203</v>
       </c>
       <c r="M20" t="n">
         <v>227.7327635253934</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265084</v>
       </c>
       <c r="O20" t="n">
-        <v>218.5211886152591</v>
+        <v>218.5211886152592</v>
       </c>
       <c r="P20" t="n">
         <v>186.5027788167461</v>
@@ -32496,13 +32496,13 @@
         <v>140.0558197925741</v>
       </c>
       <c r="R20" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517341</v>
       </c>
       <c r="S20" t="n">
-        <v>29.55420813300721</v>
+        <v>29.55420813300722</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500889</v>
+        <v>5.67739094250089</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.6939284878806462</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847295</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589067</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472369</v>
+        <v>65.5610243747237</v>
       </c>
       <c r="K21" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
-        <v>150.670744704085</v>
+        <v>150.6707447040851</v>
       </c>
       <c r="M21" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
-        <v>180.479234222958</v>
+        <v>180.4792342229581</v>
       </c>
       <c r="O21" t="n">
         <v>165.1032398336027</v>
@@ -32572,19 +32572,19 @@
         <v>132.5099057252087</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876458</v>
+        <v>88.5793627687646</v>
       </c>
       <c r="R21" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858961</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778305</v>
       </c>
       <c r="T21" t="n">
-        <v>2.797018773518919</v>
+        <v>2.79701877351892</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.0456531899921478</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,37 +32621,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704295</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815277</v>
       </c>
       <c r="I22" t="n">
-        <v>17.49530028892528</v>
+        <v>17.49530028892529</v>
       </c>
       <c r="J22" t="n">
         <v>41.13087979049936</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280078</v>
+        <v>67.5906704028008</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223823</v>
+        <v>86.49278746223824</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526559</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613043</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188946</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501265</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762115</v>
       </c>
       <c r="R22" t="n">
         <v>26.15832987576312</v>
@@ -34128,25 +34128,25 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J41" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K41" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L41" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M41" t="n">
         <v>227.7327635253934</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O41" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P41" t="n">
         <v>186.5027788167461</v>
@@ -34155,13 +34155,13 @@
         <v>140.0558197925741</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517341</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S41" t="n">
-        <v>29.55420813300722</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T41" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589067</v>
       </c>
       <c r="J42" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K42" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L42" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N42" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O42" t="n">
         <v>165.1032398336027</v>
@@ -34231,19 +34231,19 @@
         <v>132.5099057252087</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R42" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778305</v>
       </c>
       <c r="T42" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I43" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
         <v>41.13087979049936</v>
       </c>
       <c r="K43" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L43" t="n">
-        <v>86.49278746223824</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R43" t="n">
         <v>26.15832987576312</v>
@@ -34786,13 +34786,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L11" t="n">
         <v>386.5629597537834</v>
@@ -35424,13 +35424,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K12" t="n">
-        <v>113.4554389912682</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35506,10 +35506,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185922</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
         <v>130.7783941571062</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.45228430891446</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35737,7 +35737,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250338</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508156</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471589</v>
       </c>
       <c r="K20" t="n">
         <v>269.0322418464921</v>
       </c>
       <c r="L20" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537835</v>
       </c>
       <c r="M20" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N20" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419016</v>
       </c>
       <c r="O20" t="n">
         <v>369.2231584563178</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846583</v>
+        <v>64.81443304846584</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009466</v>
@@ -36211,13 +36211,13 @@
         <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4428713250338</v>
+        <v>528.4798964831783</v>
       </c>
       <c r="O21" t="n">
-        <v>416.3693146658877</v>
+        <v>416.3693146658878</v>
       </c>
       <c r="P21" t="n">
-        <v>316.9982669508156</v>
+        <v>126.9612417926712</v>
       </c>
       <c r="Q21" t="n">
         <v>158.6748764185922</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691794</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225544</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990614</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508156</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891457</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>338.4428713250338</v>
+        <v>338.4428713250343</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
@@ -36928,10 +36928,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>316.9982669508156</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.45228430891401</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009466</v>
+        <v>207.3158823613947</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508156</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.45228430891457</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K41" t="n">
         <v>269.0322418464921</v>
       </c>
       <c r="L41" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N41" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O41" t="n">
         <v>369.2231584563178</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846584</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
@@ -37870,16 +37870,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831783</v>
+        <v>338.4428713250343</v>
       </c>
       <c r="O42" t="n">
-        <v>416.3693146658878</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225544</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>386.5629597537835</v>
       </c>
       <c r="M44" t="n">
-        <v>446.9000637909527</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N44" t="n">
         <v>439.3515785419016</v>
